--- a/biology/Botanique/Oryza_schlechteri/Oryza_schlechteri.xlsx
+++ b/biology/Botanique/Oryza_schlechteri/Oryza_schlechteri.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,13 +490,15 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>Oryza schlechteri est une espèce de plantes monocotylédones de la famille des Poaceae, sous-famille des Oryzoideae[2], originaire de l'Asie tropicale. 
-Ce sont des plantes herbacées vivaces, cespiteuses, aux tiges (chaumes) dressées, pouvant atteindre 30 à 90 cm de long. L'inflorescence est une panicule[2].
-Cette espèce de riz sauvage tétraploïde (2n=48), au génome de type KKLL, fait partie du pool génique tertiaire du riz cultivé (Oryza sativa)[3],[4].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Oryza schlechteri est une espèce de plantes monocotylédones de la famille des Poaceae, sous-famille des Oryzoideae, originaire de l'Asie tropicale. 
+Ce sont des plantes herbacées vivaces, cespiteuses, aux tiges (chaumes) dressées, pouvant atteindre 30 à 90 cm de long. L'inflorescence est une panicule.
+Cette espèce de riz sauvage tétraploïde (2n=48), au génome de type KKLL, fait partie du pool génique tertiaire du riz cultivé (Oryza sativa),.
 Étymologie
-l'épithète spécifique, « schlechteri », est un hommage au botaniste allemand, Friedrich Richard Rudolf Schlechter (1872-1925)[5].</t>
+l'épithète spécifique, « schlechteri », est un hommage au botaniste allemand, Friedrich Richard Rudolf Schlechter (1872-1925).</t>
         </is>
       </c>
     </row>
